--- a/로스트아크/데이터테이블/테이블수정목록.xlsx
+++ b/로스트아크/데이터테이블/테이블수정목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C7E6C-E0C3-41DE-AD3D-F85AFD991E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FB5830-F95D-4228-8D6F-01827BC81FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,29 +174,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -213,6 +207,521 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4793309D-7B79-4885-86CE-7C028054B214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9525000" y="548640"/>
+          <a:ext cx="2002959" cy="1330320"/>
+          <a:chOff x="10173567" y="3003566"/>
+          <a:chExt cx="2001360" cy="1297579"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F4E3EA-0F0E-FF3A-C44A-4713AD9D85EF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10173567" y="3003566"/>
+            <a:ext cx="1944874" cy="1297579"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>enum NormalSkillCategory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>{ </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>    FLURRY, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>    FOCUS </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>}</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C62ED3-BF8C-7014-6756-596DB5165A4F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11368953" y="3463318"/>
+            <a:ext cx="805974" cy="232884"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="54000" tIns="0" rIns="54000" bIns="0" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>NORMAL_1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07EFEA17-90AD-2687-BAC7-49FF66E38642}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11368950" y="3841442"/>
+            <a:ext cx="805974" cy="232884"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="54000" tIns="0" rIns="54000" bIns="0" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>NORMAL_2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C158D-7869-700C-3FB8-A36F29C16D3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="1"/>
+            <a:endCxn id="9" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10933034" y="3579760"/>
+            <a:ext cx="435919" cy="67465"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6D1E43-7590-0F31-B084-AD8A83D47ABD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="5" idx="1"/>
+            <a:endCxn id="10" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="10933034" y="3888587"/>
+            <a:ext cx="435916" cy="69297"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="그룹 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B056F2-992E-EA89-211E-8694E3F35698}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10751228" y="3526186"/>
+            <a:ext cx="181806" cy="483440"/>
+            <a:chOff x="10744461" y="3544771"/>
+            <a:chExt cx="181806" cy="487105"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEFA584-52AA-6780-0339-DA6B6920B5CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10744461" y="3544771"/>
+              <a:ext cx="181806" cy="243913"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="54000" bIns="0" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A5646B-AC7C-6DD4-C9DE-E92D086AE24A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10744461" y="3787963"/>
+              <a:ext cx="181806" cy="243913"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="54000" bIns="0" rtlCol="0" anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,33 +1014,33 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -541,5 +1050,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/로스트아크/데이터테이블/테이블수정목록.xlsx
+++ b/로스트아크/데이터테이블/테이블수정목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FB5830-F95D-4228-8D6F-01827BC81FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9EC3B3-5D81-48D7-9BA3-747BA253FF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>테이블이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>로아 공홈 전투 정보실 리소스 기준으로 파일명 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 형 타입 -&gt; enum으로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1002,6 +1006,11 @@
     <col min="5" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>

--- a/로스트아크/데이터테이블/테이블수정목록.xlsx
+++ b/로스트아크/데이터테이블/테이블수정목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9EC3B3-5D81-48D7-9BA3-747BA253FF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BA070-23C9-4BB4-A4A0-3FEDDCFC02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,16 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>테이블이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon_Atlas_Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,14 @@
   </si>
   <si>
     <t>int 형 타입 -&gt; enum으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect_Table </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정할 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1008,7 +1012,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1016,41 +1020,49 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12"/>
       <c r="C4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/테이블수정목록.xlsx
+++ b/로스트아크/데이터테이블/테이블수정목록.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BA070-23C9-4BB4-A4A0-3FEDDCFC02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC73371-6DFF-4510-A21A-5080AF841570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>테이블이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon / String 테이블의 id 설정 후 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,15 @@
   </si>
   <si>
     <t>수정할 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect_Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 그대로 사용 추후 id 참조로 변경
+(빨간 배경 칼럼의 필드값)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,23 +181,26 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,8 +253,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9525000" y="548640"/>
-          <a:ext cx="2002959" cy="1330320"/>
+          <a:off x="9982200" y="548640"/>
+          <a:ext cx="2002959" cy="1505580"/>
           <a:chOff x="10173567" y="3003566"/>
           <a:chExt cx="2001360" cy="1297579"/>
         </a:xfrm>
@@ -995,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1004,15 +1012,15 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="31.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="54.3984375" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1020,49 +1028,57 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/테이블수정목록.xlsx
+++ b/로스트아크/데이터테이블/테이블수정목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC73371-6DFF-4510-A21A-5080AF841570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB5737-EDEE-4AD0-8639-8969B3B9FB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>테이블이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>로아 공홈 전투 정보실 리소스 기준으로 파일명 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int 형 타입 -&gt; enum으로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,6 +88,18 @@
   <si>
     <t>문자열을 그대로 사용 추후 id 참조로 변경
 (빨간 배경 칼럼의 필드값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 문자열 그대로 쓰기 (실제 사용은 id 참조라고 명시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) int 형 타입 -&gt; enum으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +137,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +222,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,16 +253,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>136059</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>103500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>478959</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95880</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -253,7 +277,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9982200" y="548640"/>
+          <a:off x="8983980" y="2971800"/>
           <a:ext cx="2002959" cy="1505580"/>
           <a:chOff x="10173567" y="3003566"/>
           <a:chExt cx="2001360" cy="1297579"/>
@@ -1003,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1015,26 +1039,29 @@
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.296875" style="8" customWidth="1"/>
     <col min="4" max="4" width="54.3984375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="2"/>
+    <col min="5" max="6" width="8.796875" style="2"/>
+    <col min="7" max="7" width="8.796875" style="15"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1044,8 +1071,11 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="13"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
@@ -1054,7 +1084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1062,22 +1092,30 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
